--- a/Tickets/Normal Tickets/Ticket 40185 - Adding Users to Email/UnitTesting.xlsx
+++ b/Tickets/Normal Tickets/Ticket 40185 - Adding Users to Email/UnitTesting.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub_v2\WIP\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub_v2\WIP\Tickets\Normal Tickets\Ticket 40185 - Adding Users to Email\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0967607E-8B30-4B18-BB95-F96014570449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A83020-DC2C-43BD-9236-58A0BB279C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="40" r:id="rId1"/>
     <sheet name="Case #1" sheetId="33" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="41" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="42" r:id="rId4"/>
+    <sheet name="Case #2" sheetId="42" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Case #1'!$1:$5</definedName>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>Test Case #</t>
   </si>
@@ -124,22 +123,36 @@
     <t>Justin Pope - 2023-06-21</t>
   </si>
   <si>
-    <t>Case 1</t>
-  </si>
-  <si>
     <t>Dev Data</t>
   </si>
   <si>
-    <t xml:space="preserve">1) </t>
-  </si>
-  <si>
-    <t>Case 2</t>
-  </si>
-  <si>
-    <t>1)</t>
-  </si>
-  <si>
-    <t>Case 3</t>
+    <t>Unit Testing</t>
+  </si>
+  <si>
+    <t>1) SSMS
+2) Visual Studio</t>
+  </si>
+  <si>
+    <t>In Azure Environment</t>
+  </si>
+  <si>
+    <t>1) Install on GWCApps
+2) Access to Developers email</t>
+  </si>
+  <si>
+    <t>Screen Shots below</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test_cDataContext_GetEmailRepsByBranch</t>
+  </si>
+  <si>
+    <t>Unit Test:</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Within visual studio, this test executes functions and sql procedures to build the list of recipients that will receive emails</t>
   </si>
 </sst>
 </file>
@@ -298,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -387,65 +400,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -464,10 +483,76 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6182EBF0-BE39-5537-5F57-640ED9D009A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="95250" y="3390900"/>
+          <a:ext cx="8191500" cy="16002000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -505,9 +590,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -540,26 +625,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -592,26 +660,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -785,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -822,10 +873,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>30</v>
@@ -841,159 +892,143 @@
         <v>31</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="25"/>
     </row>
-    <row r="4" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <f>A3+1</f>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
+    </row>
+    <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+    </row>
+    <row r="11" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>1</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+    </row>
+    <row r="14" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>2</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="25"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="38"/>
-    </row>
-    <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="38"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="37"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="37"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-    </row>
-    <row r="12" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
-        <v>1</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-    </row>
-    <row r="15" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
-        <v>2</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
-        <v>3</v>
-      </c>
-      <c r="B16" s="32" t="s">
+      <c r="B15" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B13:E13"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:E11"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1005,11 +1040,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1024,58 +1059,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="32">
+      <c r="B2" s="49"/>
+      <c r="C2" s="37">
         <v>1</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="32" t="str">
+      <c r="B3" s="49"/>
+      <c r="C3" s="37" t="str">
         <f>'Test Cases'!B2</f>
-        <v>Case 1</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+        <v>Unit Testing</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="32" t="str">
+      <c r="B4" s="49"/>
+      <c r="C4" s="37" t="str">
         <f>'Test Cases'!D2</f>
-        <v xml:space="preserve">1) </v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+        <v>1) SSMS
+2) Visual Studio</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="26" t="s">
         <v>19</v>
       </c>
@@ -1087,157 +1123,94 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
     </row>
     <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="41"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="25"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="25" t="s">
+        <v>29</v>
+      </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="12"/>
+      <c r="F7" s="12" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="41"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="12"/>
+      <c r="A8" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-    </row>
-    <row r="10" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="48"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="48"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="22"/>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="40" t="s">
+      <c r="A9" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-    </row>
-    <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="41"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="46"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="18"/>
-    </row>
-    <row r="17" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="17"/>
-    </row>
-    <row r="19" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="46"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="19"/>
-    </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="31"/>
-    </row>
-    <row r="21" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="34"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B14" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B116" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C116" s="50" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B117" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C117" s="51" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:B19"/>
+  <mergeCells count="13">
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A8:F8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:F4"/>
@@ -1246,19 +1219,22 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="5" scale="94" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E8B8D8-512B-449A-8292-F39EF9F9200B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8630E188-67BE-42B3-BD7B-AD2C9ADE9BF1}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
@@ -1274,59 +1250,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="32">
-        <f>'Test Cases'!A3</f>
-        <v>2</v>
-      </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="37">
+        <v>1</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="32" t="str">
+      <c r="B3" s="49"/>
+      <c r="C3" s="37" t="str">
         <f>'Test Cases'!B3</f>
-        <v>Case 2</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+        <v>In Azure Environment</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="32" t="str">
+      <c r="B4" s="49"/>
+      <c r="C4" s="37" t="str">
         <f>'Test Cases'!D3</f>
-        <v>1)</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+        <v>1) Install on GWCApps
+2) Access to Developers email</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="26" t="s">
         <v>19</v>
       </c>
@@ -1338,101 +1314,101 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
     </row>
     <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="41"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="25"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="41"/>
-      <c r="B8" s="42"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="25"/>
       <c r="D8" s="13"/>
       <c r="E8" s="7"/>
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="48"/>
-      <c r="B10" s="49"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="25"/>
       <c r="D10" s="11"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="48"/>
-      <c r="B11" s="49"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="24"/>
       <c r="D11" s="22"/>
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
-      <c r="B12" s="47"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="25"/>
       <c r="D12" s="23"/>
       <c r="E12" s="16"/>
       <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
-      <c r="B13" s="47"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="25"/>
       <c r="D13" s="23"/>
       <c r="E13" s="16"/>
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
     </row>
     <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="41"/>
-      <c r="B15" s="42"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="29"/>
       <c r="D15" s="14"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="46"/>
-      <c r="B16" s="47"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
-      <c r="B17" s="42"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="29"/>
       <c r="D17" s="14"/>
       <c r="E17" s="12"/>
@@ -1447,33 +1423,46 @@
       <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="46"/>
-      <c r="B19" s="47"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
       <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="31"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="34"/>
     </row>
     <row r="21" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:F9"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:F20"/>
@@ -1484,272 +1473,36 @@
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8630E188-67BE-42B3-BD7B-AD2C9ADE9BF1}">
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="1.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="42.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="42.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="43"/>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="32">
-        <v>1</v>
-      </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="32" t="str">
-        <f>'Test Cases'!B2</f>
-        <v>Case 1</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="32" t="str">
-        <f>'Test Cases'!D2</f>
-        <v xml:space="preserve">1) </v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-    </row>
-    <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="41"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="41"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-    </row>
-    <row r="10" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="48"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="48"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="22"/>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-    </row>
-    <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="41"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="46"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="18"/>
-    </row>
-    <row r="17" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="17"/>
-    </row>
-    <row r="19" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="46"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="19"/>
-    </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="31"/>
-    </row>
-    <row r="21" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a638d2c-e7c0-419c-9191-e92086f67d97">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="84e25877-5f26-4dc3-9598-48e40fb4ec5c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006C2685AC3E5C784C94699E6BCD3719C2" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bc4032ed2b9525712665d7b053f58e3c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a638d2c-e7c0-419c-9191-e92086f67d97" xmlns:ns3="84e25877-5f26-4dc3-9598-48e40fb4ec5c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60642ebedafdd5f29702615754875760" ns2:_="" ns3:_="">
     <xsd:import namespace="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
@@ -1980,31 +1733,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1336CC8-439A-433F-AFCD-D3738BD4CF84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="84e25877-5f26-4dc3-9598-48e40fb4ec5c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D54ED65-933A-4F90-B95A-15C952E0CAEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a638d2c-e7c0-419c-9191-e92086f67d97">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="84e25877-5f26-4dc3-9598-48e40fb4ec5c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{433CEB9C-4DCB-4DF9-8E44-99AD43459D1C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1E225A3-DBF5-416D-8482-D016D280651E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2021,31 +1777,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{433CEB9C-4DCB-4DF9-8E44-99AD43459D1C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D54ED65-933A-4F90-B95A-15C952E0CAEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1336CC8-439A-433F-AFCD-D3738BD4CF84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="84e25877-5f26-4dc3-9598-48e40fb4ec5c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Tickets/Normal Tickets/Ticket 40185 - Adding Users to Email/UnitTesting.xlsx
+++ b/Tickets/Normal Tickets/Ticket 40185 - Adding Users to Email/UnitTesting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub_v2\WIP\Tickets\Normal Tickets\Ticket 40185 - Adding Users to Email\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A83020-DC2C-43BD-9236-58A0BB279C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0104B6-7DAA-472E-85A1-B61CF5DE9988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-8010" windowWidth="16440" windowHeight="28320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="40" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>Test Case #</t>
   </si>
@@ -152,7 +152,19 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Within visual studio, this test executes functions and sql procedures to build the list of recipients that will receive emails</t>
+    <t>Within visual studio, this test executes functions and sql procedures to build the list of recipients that will receive emails. The list is built on Branch and Email Type to fetch the recipients.</t>
+  </si>
+  <si>
+    <t>Test_cMain_SendBackorderSuccessEmail</t>
+  </si>
+  <si>
+    <t>This function executes the methods in order to send an email for a successful Back Order process.</t>
+  </si>
+  <si>
+    <t>Test_cMain_SendBackorderValidationIssueEmail</t>
+  </si>
+  <si>
+    <t>This function executes the methods in order to send an email for a validation issues during Back Order process.</t>
   </si>
 </sst>
 </file>
@@ -400,32 +412,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -433,38 +475,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,27 +500,27 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1609725</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>2352674</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>88824</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6182EBF0-BE39-5537-5F57-640ED9D009A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF72AF36-704B-26F9-F76F-81C986A9BEB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -519,29 +531,370 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="95250" y="3390900"/>
-          <a:ext cx="8191500" cy="16002000"/>
+          <a:off x="180974" y="3209925"/>
+          <a:ext cx="8848725" cy="16719474"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>48550</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>114700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C4E3B3E-E3CE-D851-7EF5-839EDC96CD22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="20650200"/>
+          <a:ext cx="6630325" cy="2867425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1287353</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>133858</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E75990E-7117-5932-DD4D-DCEF35FE508E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="30746700"/>
+          <a:ext cx="10593278" cy="3639058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1315927</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>152891</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85E7569D-B9F2-CC19-9F0C-F31ED1AAC64C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266700" y="27165300"/>
+          <a:ext cx="10583752" cy="3515216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1211143</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>48117</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B710F7BC-4235-8C00-191A-4E9E62B35B51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="23650575"/>
+          <a:ext cx="10517068" cy="3524742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2801261</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>124204</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49734F4B-D876-DFB8-BAD3-4F01F1886078}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="35385375"/>
+          <a:ext cx="6525536" cy="2715004"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1125424</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>67227</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD00B685-810F-125F-A6DA-A5C98FF7534B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="38300025"/>
+          <a:ext cx="10564699" cy="3953427"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1173056</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>114858</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87285112-ED5E-E7B7-F47F-D0C159E5967E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="42348150"/>
+          <a:ext cx="10612331" cy="4001058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1096845</xdr:colOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>10069</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08DF55F2-FBB5-441C-C1A3-42D33688EC46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="46720125"/>
+          <a:ext cx="10536120" cy="3896269"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -900,119 +1253,126 @@
       <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="40"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="32"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="30"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="30"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="30"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
     </row>
     <row r="11" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="33"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>1</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
     </row>
     <row r="14" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>2</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>3</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
@@ -1022,13 +1382,6 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1040,11 +1393,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C124" sqref="C124"/>
+      <pane ySplit="5" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D278" sqref="D278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1059,59 +1412,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="48"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="37">
+      <c r="B2" s="44"/>
+      <c r="C2" s="34">
         <v>1</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="37" t="str">
+      <c r="B3" s="44"/>
+      <c r="C3" s="34" t="str">
         <f>'Test Cases'!B2</f>
         <v>Unit Testing</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="37" t="str">
+      <c r="B4" s="44"/>
+      <c r="C4" s="34" t="str">
         <f>'Test Cases'!D2</f>
         <v>1) SSMS
 2) Visual Studio</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="26" t="s">
         <v>19</v>
       </c>
@@ -1123,14 +1476,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
     </row>
     <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="45"/>
@@ -1145,69 +1498,95 @@
       </c>
     </row>
     <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B14" s="51" t="s">
+    <row r="14" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="B14" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B116" s="50" t="s">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B119" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C116" s="50" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="117" spans="2:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B117" s="51" t="s">
+      <c r="C119" s="30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B120" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C117" s="51" t="s">
-        <v>37</v>
+      <c r="C120" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B143" s="30"/>
+      <c r="C143" s="30"/>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B144" s="31"/>
+      <c r="C144" s="31"/>
+    </row>
+    <row r="207" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B207" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C207" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B208" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C208" s="31" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A8:F8"/>
@@ -1219,8 +1598,6 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1250,59 +1627,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="48"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="37">
+      <c r="B2" s="44"/>
+      <c r="C2" s="34">
         <v>1</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="37" t="str">
+      <c r="B3" s="44"/>
+      <c r="C3" s="34" t="str">
         <f>'Test Cases'!B3</f>
         <v>In Azure Environment</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="37" t="str">
+      <c r="B4" s="44"/>
+      <c r="C4" s="34" t="str">
         <f>'Test Cases'!D3</f>
         <v>1) Install on GWCApps
 2) Access to Developers email</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="26" t="s">
         <v>19</v>
       </c>
@@ -1314,14 +1691,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
     </row>
     <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="45"/>
@@ -1340,55 +1717,55 @@
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
     </row>
     <row r="10" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="41"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="25"/>
       <c r="D10" s="11"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
-      <c r="B11" s="42"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="24"/>
       <c r="D11" s="22"/>
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="39"/>
-      <c r="B12" s="40"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="25"/>
       <c r="D12" s="23"/>
       <c r="E12" s="16"/>
       <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="39"/>
-      <c r="B13" s="40"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="25"/>
       <c r="D13" s="23"/>
       <c r="E13" s="16"/>
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
     </row>
     <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="45"/>
@@ -1399,8 +1776,8 @@
       <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="39"/>
-      <c r="B16" s="40"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -1423,33 +1800,43 @@
       <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="39"/>
-      <c r="B19" s="40"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
       <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="34"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="21" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:B2"/>
@@ -1463,46 +1850,12 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a638d2c-e7c0-419c-9191-e92086f67d97">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="84e25877-5f26-4dc3-9598-48e40fb4ec5c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006C2685AC3E5C784C94699E6BCD3719C2" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bc4032ed2b9525712665d7b053f58e3c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a638d2c-e7c0-419c-9191-e92086f67d97" xmlns:ns3="84e25877-5f26-4dc3-9598-48e40fb4ec5c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60642ebedafdd5f29702615754875760" ns2:_="" ns3:_="">
     <xsd:import namespace="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
@@ -1733,34 +2086,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1336CC8-439A-433F-AFCD-D3738BD4CF84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="84e25877-5f26-4dc3-9598-48e40fb4ec5c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D54ED65-933A-4F90-B95A-15C952E0CAEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{433CEB9C-4DCB-4DF9-8E44-99AD43459D1C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a638d2c-e7c0-419c-9191-e92086f67d97">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="84e25877-5f26-4dc3-9598-48e40fb4ec5c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1E225A3-DBF5-416D-8482-D016D280651E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1777,4 +2127,31 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{433CEB9C-4DCB-4DF9-8E44-99AD43459D1C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D54ED65-933A-4F90-B95A-15C952E0CAEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1336CC8-439A-433F-AFCD-D3738BD4CF84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="84e25877-5f26-4dc3-9598-48e40fb4ec5c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Tickets/Normal Tickets/Ticket 40185 - Adding Users to Email/UnitTesting.xlsx
+++ b/Tickets/Normal Tickets/Ticket 40185 - Adding Users to Email/UnitTesting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub_v2\WIP\Tickets\Normal Tickets\Ticket 40185 - Adding Users to Email\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0104B6-7DAA-472E-85A1-B61CF5DE9988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2701E1D6-4677-4511-8605-B712AB689D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-8010" windowWidth="16440" windowHeight="28320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-8010" windowWidth="16440" windowHeight="28320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="40" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>Test Case #</t>
   </si>
@@ -133,13 +133,6 @@
 2) Visual Studio</t>
   </si>
   <si>
-    <t>In Azure Environment</t>
-  </si>
-  <si>
-    <t>1) Install on GWCApps
-2) Access to Developers email</t>
-  </si>
-  <si>
     <t>Screen Shots below</t>
   </si>
   <si>
@@ -165,13 +158,28 @@
   </si>
   <si>
     <t>This function executes the methods in order to send an email for a validation issues during Back Order process.</t>
+  </si>
+  <si>
+    <t>Production Issues</t>
+  </si>
+  <si>
+    <t>Above picture highlights the issue, EmailType was used instead of RecepeintType. Below shows the correct procedure</t>
+  </si>
+  <si>
+    <t>reran unit test</t>
+  </si>
+  <si>
+    <t>Following Script to resend emails</t>
+  </si>
+  <si>
+    <t>This was tested with Production data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -207,6 +215,10 @@
       <sz val="6"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="5">
@@ -323,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -418,39 +430,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -463,21 +475,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -902,6 +915,431 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1515406</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>143483</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F0834C3-F92F-ABB8-7887-11D2D26C217F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="5238750"/>
+          <a:ext cx="6668431" cy="4353533"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1077194</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>588</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E64018F4-58DB-A1DB-0A3E-76818AAA1D20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="10258425"/>
+          <a:ext cx="6230219" cy="4210638"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>41199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{394B4774-D992-424B-95DA-D0841FEFE740}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="15925800"/>
+          <a:ext cx="8848725" cy="16719474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1346692</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{382C5E2C-E633-83D3-B09E-46374E378949}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="33451800"/>
+          <a:ext cx="6252067" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>249937</xdr:colOff>
+      <xdr:row>296</xdr:row>
+      <xdr:rowOff>19979</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E182754C-41B9-CDDD-87DA-1A72F61CA3F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="43938825"/>
+          <a:ext cx="16385287" cy="6658904"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676185</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>113925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1342185</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>124005</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="10" name="Ink 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F44A097-9568-A7E9-EC66-0EE347E3AD7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2914560" y="8105400"/>
+            <a:ext cx="666000" cy="10080"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="10" name="Ink 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F44A097-9568-A7E9-EC66-0EE347E3AD7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2860920" y="7997760"/>
+              <a:ext cx="773640" cy="225720"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657105</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>113070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1312305</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>136830</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="11" name="Ink 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D8F36E7-8BC8-9624-1C2E-47284A98E35A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2895480" y="8590320"/>
+            <a:ext cx="655200" cy="23760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="11" name="Ink 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D8F36E7-8BC8-9624-1C2E-47284A98E35A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2841840" y="8482680"/>
+              <a:ext cx="762840" cy="239400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-08-17T20:38:10.846"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.3" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFC00"/>
+      <inkml:brushProperty name="tip" value="rectangle"/>
+      <inkml:brushProperty name="rasterOp" value="maskPen"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'1774'0,"-1770"0,0 0,0 0,0 0,0 0,0 0,0 1,0 0,0 0,0 0,0 0,0 1,-1-1,1 1,4 3,4 7</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-08-17T20:38:13.098"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.3" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFC00"/>
+      <inkml:brushProperty name="tip" value="rectangle"/>
+      <inkml:brushProperty name="rasterOp" value="maskPen"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 3,'349'-2,"475"9,-266 40,-470-37</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -1192,10 +1630,10 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="34.7109375" customWidth="1"/>
@@ -1204,7 +1642,7 @@
     <col min="5" max="5" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="12" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1221,7 +1659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="84" customHeight="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1236,143 +1674,134 @@
       </c>
       <c r="E2" s="25"/>
     </row>
-    <row r="3" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="84" customHeight="1">
       <c r="A3" s="6">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="D3" s="7"/>
       <c r="E3" s="25"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="40"/>
-    </row>
-    <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+    </row>
+    <row r="5" spans="1:5" ht="25.5">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="40"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="s">
+      <c r="D8" s="33"/>
+      <c r="E8" s="34"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="35"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-    </row>
-    <row r="11" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+    </row>
+    <row r="11" spans="1:5" ht="38.25">
       <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="36"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="9">
         <v>1</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-    </row>
-    <row r="14" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+    </row>
+    <row r="14" spans="1:5" ht="32.25" customHeight="1">
       <c r="A14" s="9">
         <v>2</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="9">
         <v>3</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
@@ -1382,6 +1811,13 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="B11:E11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1395,12 +1831,12 @@
   </sheetPr>
   <dimension ref="A1:F208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D278" sqref="D278"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="3" customWidth="1"/>
@@ -1411,60 +1847,60 @@
     <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A1" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="43"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="1" customFormat="1">
       <c r="A2" s="44" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="44"/>
-      <c r="C2" s="34">
+      <c r="C2" s="39">
         <v>1</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1">
       <c r="A3" s="44" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="44"/>
-      <c r="C3" s="34" t="str">
+      <c r="C3" s="39" t="str">
         <f>'Test Cases'!B2</f>
         <v>Unit Testing</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1">
       <c r="A4" s="44" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="44"/>
-      <c r="C4" s="34" t="str">
+      <c r="C4" s="39" t="str">
         <f>'Test Cases'!D2</f>
         <v>1) SSMS
 2) Visual Studio</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
       <c r="D5" s="26" t="s">
         <v>19</v>
       </c>
@@ -1475,17 +1911,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="42" t="s">
+    <row r="6" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A6" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-    </row>
-    <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+    </row>
+    <row r="7" spans="1:6" s="10" customFormat="1">
       <c r="A7" s="45"/>
       <c r="B7" s="46"/>
       <c r="C7" s="25" t="s">
@@ -1494,102 +1930,97 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="10" customFormat="1">
+      <c r="A8" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+    </row>
+    <row r="9" spans="1:6" s="10" customFormat="1">
+      <c r="A9" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A10" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="30" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-    </row>
-    <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-    </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="30" t="s">
+      <c r="C13" s="30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="51">
+      <c r="B14" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="30" t="s">
+    </row>
+    <row r="119" spans="2:3">
+      <c r="B119" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C119" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" ht="25.5">
+      <c r="B120" s="31" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="B14" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="31" t="s">
+      <c r="C120" s="31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B119" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C119" s="30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="120" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B120" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C120" s="31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:3">
       <c r="B143" s="30"/>
       <c r="C143" s="30"/>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:3">
       <c r="B144" s="31"/>
       <c r="C144" s="31"/>
     </row>
-    <row r="207" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:3" ht="25.5">
       <c r="B207" s="30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C207" s="30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="208" spans="2:3" ht="38.25" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" ht="38.25">
       <c r="B208" s="31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C208" s="31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A8:F8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:F4"/>
@@ -1597,6 +2028,11 @@
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A8:F8"/>
     <mergeCell ref="A7:B7"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -1609,16 +2045,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8630E188-67BE-42B3-BD7B-AD2C9ADE9BF1}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F254"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C5"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="42.85546875" style="4" customWidth="1"/>
     <col min="5" max="5" width="42.85546875" style="3" customWidth="1"/>
@@ -1626,60 +2062,59 @@
     <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A1" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="43"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="1" customFormat="1">
       <c r="A2" s="44" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="44"/>
-      <c r="C2" s="34">
+      <c r="C2" s="39">
         <v>1</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1">
       <c r="A3" s="44" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="44"/>
-      <c r="C3" s="34" t="str">
+      <c r="C3" s="39" t="str">
         <f>'Test Cases'!B3</f>
-        <v>In Azure Environment</v>
-      </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>Production Issues</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1">
       <c r="A4" s="44" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="44"/>
-      <c r="C4" s="34" t="str">
+      <c r="C4" s="39">
         <f>'Test Cases'!D3</f>
-        <v>1) Install on GWCApps
-2) Access to Developers email</v>
-      </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
       <c r="D5" s="26" t="s">
         <v>19</v>
       </c>
@@ -1690,17 +2125,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="42" t="s">
+    <row r="6" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A6" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-    </row>
-    <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+    </row>
+    <row r="7" spans="1:6" s="10" customFormat="1">
       <c r="A7" s="45"/>
       <c r="B7" s="46"/>
       <c r="C7" s="25"/>
@@ -1708,7 +2143,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" s="10" customFormat="1">
       <c r="A8" s="45"/>
       <c r="B8" s="46"/>
       <c r="C8" s="25"/>
@@ -1716,58 +2151,58 @@
       <c r="E8" s="7"/>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="42" t="s">
+    <row r="9" spans="1:6" s="10" customFormat="1">
+      <c r="A9" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-    </row>
-    <row r="10" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+    </row>
+    <row r="10" spans="1:6" s="10" customFormat="1">
+      <c r="A10" s="50"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="25"/>
       <c r="D10" s="11"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48"/>
+    <row r="11" spans="1:6" s="10" customFormat="1">
+      <c r="A11" s="50"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="24"/>
       <c r="D11" s="22"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="49"/>
-      <c r="B12" s="50"/>
+    <row r="12" spans="1:6" s="10" customFormat="1">
+      <c r="A12" s="47"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="25"/>
       <c r="D12" s="23"/>
       <c r="E12" s="16"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="49"/>
-      <c r="B13" s="50"/>
+    <row r="13" spans="1:6" s="10" customFormat="1">
+      <c r="A13" s="47"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="25"/>
       <c r="D13" s="23"/>
       <c r="E13" s="16"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="42" t="s">
+    <row r="14" spans="1:6" s="10" customFormat="1">
+      <c r="A14" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-    </row>
-    <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+    </row>
+    <row r="15" spans="1:6" s="10" customFormat="1">
       <c r="A15" s="45"/>
       <c r="B15" s="46"/>
       <c r="C15" s="29"/>
@@ -1775,15 +2210,15 @@
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="49"/>
-      <c r="B16" s="50"/>
+    <row r="16" spans="1:6" s="10" customFormat="1">
+      <c r="A16" s="47"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="18"/>
     </row>
-    <row r="17" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" s="10" customFormat="1">
       <c r="A17" s="45"/>
       <c r="B17" s="46"/>
       <c r="C17" s="29"/>
@@ -1791,7 +2226,7 @@
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" s="10" customFormat="1">
       <c r="A18" s="27"/>
       <c r="B18" s="28"/>
       <c r="C18" s="29"/>
@@ -1799,44 +2234,73 @@
       <c r="E18" s="12"/>
       <c r="F18" s="17"/>
     </row>
-    <row r="19" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="49"/>
-      <c r="B19" s="50"/>
+    <row r="19" spans="1:6" s="10" customFormat="1">
+      <c r="A19" s="47"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
       <c r="F19" s="19"/>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="32" t="s">
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A20" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
-    </row>
-    <row r="21" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="36"/>
+    </row>
+    <row r="21" spans="1:6" ht="99.75" customHeight="1">
+      <c r="A21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+    </row>
+    <row r="51" spans="3:3" ht="38.25">
+      <c r="C51" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" ht="25.5">
+      <c r="B80" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81" s="30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" ht="51">
+      <c r="B82" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C82" s="31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2">
+      <c r="B188" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" s="31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2">
+      <c r="B254" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:B2"/>
@@ -1850,12 +2314,48 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a638d2c-e7c0-419c-9191-e92086f67d97">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="84e25877-5f26-4dc3-9598-48e40fb4ec5c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006C2685AC3E5C784C94699E6BCD3719C2" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bc4032ed2b9525712665d7b053f58e3c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a638d2c-e7c0-419c-9191-e92086f67d97" xmlns:ns3="84e25877-5f26-4dc3-9598-48e40fb4ec5c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60642ebedafdd5f29702615754875760" ns2:_="" ns3:_="">
     <xsd:import namespace="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
@@ -2086,31 +2586,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1336CC8-439A-433F-AFCD-D3738BD4CF84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="84e25877-5f26-4dc3-9598-48e40fb4ec5c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D54ED65-933A-4F90-B95A-15C952E0CAEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a638d2c-e7c0-419c-9191-e92086f67d97">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="84e25877-5f26-4dc3-9598-48e40fb4ec5c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{433CEB9C-4DCB-4DF9-8E44-99AD43459D1C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1E225A3-DBF5-416D-8482-D016D280651E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2127,31 +2630,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{433CEB9C-4DCB-4DF9-8E44-99AD43459D1C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D54ED65-933A-4F90-B95A-15C952E0CAEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1336CC8-439A-433F-AFCD-D3738BD4CF84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="84e25877-5f26-4dc3-9598-48e40fb4ec5c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>